--- a/ai_docs/AI Pair Programming.xlsx
+++ b/ai_docs/AI Pair Programming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocuencanunez/Documents/Accenture/Inteligencia Artificial/AI Pair Programming/ai_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio.cuenca\Downloads\AI Pair Programming - Innersource\ai-pair-programming\ai_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479C368-357B-364B-8CF0-DB8953B87736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D7FE53-6299-4FD1-822D-B7F40B07F58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1260" windowWidth="32460" windowHeight="20340" xr2:uid="{8640C684-D4C0-3C48-A420-0551075C9A2E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8640C684-D4C0-3C48-A420-0551075C9A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Selección" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Modelo</t>
   </si>
@@ -225,16 +225,13 @@
   </si>
   <si>
     <t>Lenguajes de salida</t>
-  </si>
-  <si>
-    <t>Hi OpenAI Team, I am writing with regard to Codex free limits and some questions I would like to know before starting to develop an application. ¿This free version of Codex includes calls to the API and, if so, are these calls limited by a maximum? ¿Is there any deadline for fine-tuning? In case I want to continue developing the app and the free version expires, ¿is there any specific plan that I can purchase?  I would also like to know is Codex is able to understand other languages such as Spanish and if, it is capable to generate code in other programming laguages such as Cobol. Regarding the terms of use, ¿is OpenAI owner of the resulting model after doing fine-tuning?¿is OpenAI owner os the training data used for the model? Thank you,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +245,26 @@
       <name val="Gotham-Book"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
@@ -255,28 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Gotham-Bold"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Gotham-Medium"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Gotham-Book"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Gotham-Book"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Gotham-Bold"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -484,9 +482,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,86 +499,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,7 +602,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,120 +900,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B815B264-9E8C-40CE-A468-939E2AF18ED1}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.5"/>
   <cols>
     <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="41" style="23" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23" thickBot="1">
+    <row r="1" spans="1:13" ht="24" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="18" t="s">
         <v>44</v>
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="127" thickTop="1">
+    <row r="2" spans="1:13" ht="117.5" thickTop="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="273">
+    <row r="3" spans="1:13" ht="234">
       <c r="A3" s="3"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="25" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="20" t="s">
@@ -1032,24 +1027,24 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="21">
+    <row r="4" spans="1:13" ht="20">
       <c r="A4" s="3"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -1061,32 +1056,32 @@
       <c r="J4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="29" t="s">
+      <c r="K4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="42">
+    <row r="5" spans="1:13" ht="39">
       <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -1098,32 +1093,32 @@
       <c r="J5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="21">
+    <row r="6" spans="1:13" ht="20">
       <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="20" t="s">
@@ -1135,32 +1130,32 @@
       <c r="J6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="29" t="s">
+      <c r="K6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="42">
+    <row r="7" spans="1:13" ht="40">
       <c r="A7" s="3"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="28" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="20" t="s">
@@ -1180,18 +1175,18 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="21">
+    <row r="8" spans="1:13" ht="20">
       <c r="A8" s="3"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="27" t="s">
@@ -1200,19 +1195,19 @@
       <c r="G8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="28" t="s">
+      <c r="H8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="28" t="s">
+      <c r="K8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3"/>
@@ -1224,16 +1219,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:13" ht="19.5">
+      <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1245,93 +1240,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F303DE3-0EAA-4255-893A-7F8757E07641}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="44" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="44.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="32" t="s">
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="17">
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="17">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="17">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="33">
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="2:4">
+      <c r="B7" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="33">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17">
-      <c r="B9" s="30" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="33">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="49">
-      <c r="B11" s="30" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="177">
-      <c r="C15" s="30" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1341,21 +1328,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B73B9EEAFBBEA04B9487748478AE5B10" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ebb565478e7a1a3dcf1a59c51a5398bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5510ff2d-8d0f-4297-b81e-8a882641c805" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d6de3423dfd00089fa99a8de6af579" ns2:_="">
     <xsd:import namespace="5510ff2d-8d0f-4297-b81e-8a882641c805"/>
@@ -1487,15 +1465,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2184AB-1629-4005-A6B0-A584B2205D53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A847EC59-9D65-4057-9ECC-29A187D50CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1511,7 +1490,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0C98FB-7376-4267-9704-150A8F3E87E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1527,4 +1506,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2184AB-1629-4005-A6B0-A584B2205D53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ai_docs/AI Pair Programming.xlsx
+++ b/ai_docs/AI Pair Programming.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio.cuenca\Downloads\AI Pair Programming - Innersource\ai-pair-programming\ai_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/AIPairProgramming/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D7FE53-6299-4FD1-822D-B7F40B07F58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{E8A0A08B-8F94-4FB6-855B-36F478FA50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07ED3F34-DC53-400D-8A3C-B1D8ABF00FEA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8640C684-D4C0-3C48-A420-0551075C9A2E}"/>
   </bookViews>
@@ -1323,7 +1323,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ai_docs/AI Pair Programming.xlsx
+++ b/ai_docs/AI Pair Programming.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/AIPairProgramming/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocuencanunez/Documents/Accenture/Inteligencia Artificial/AI Pair Programming/ai_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{E8A0A08B-8F94-4FB6-855B-36F478FA50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07ED3F34-DC53-400D-8A3C-B1D8ABF00FEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14DDF0-9225-4749-9097-1FBCA6083EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8640C684-D4C0-3C48-A420-0551075C9A2E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{8640C684-D4C0-3C48-A420-0551075C9A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Selección" sheetId="2" r:id="rId1"/>
-    <sheet name="Dudas" sheetId="3" r:id="rId2"/>
+    <sheet name="Técnico" sheetId="5" r:id="rId2"/>
+    <sheet name="Dudas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>Modelo</t>
   </si>
@@ -225,6 +226,66 @@
   </si>
   <si>
     <t>Lenguajes de salida</t>
+  </si>
+  <si>
+    <t>RAM/GPU</t>
+  </si>
+  <si>
+    <t>Tiempo de carga</t>
+  </si>
+  <si>
+    <t>Número de problemas</t>
+  </si>
+  <si>
+    <t>Tiempo total</t>
+  </si>
+  <si>
+    <t>Tiempo por problema</t>
+  </si>
+  <si>
+    <t>Espacio ocupado</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>4.5 minutos</t>
+  </si>
+  <si>
+    <t>3.3 minutos</t>
+  </si>
+  <si>
+    <t>RAM &amp; PGU</t>
+  </si>
+  <si>
+    <t>24.56 segundos /</t>
+  </si>
+  <si>
+    <t>1 GB / 2.8 GB</t>
+  </si>
+  <si>
+    <t>20.26 segundos</t>
+  </si>
+  <si>
+    <t>57.54 segundos</t>
+  </si>
+  <si>
+    <t>9.99 minutos</t>
+  </si>
+  <si>
+    <t>0.99 minutos</t>
+  </si>
+  <si>
+    <t>2.026 segundos</t>
+  </si>
+  <si>
+    <t>11.51 segundos</t>
+  </si>
+  <si>
+    <t>21.4 GB</t>
+  </si>
+  <si>
+    <t>20.77 GB</t>
   </si>
 </sst>
 </file>
@@ -484,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,12 +554,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,9 +602,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,6 +627,28 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +676,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,337 +972,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B815B264-9E8C-40CE-A468-939E2AF18ED1}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="23" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="20" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" thickBot="1">
+    <row r="1" spans="1:13" ht="25" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="117.5" thickTop="1">
+    <row r="2" spans="1:13" ht="111" thickTop="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="J2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="234">
+    <row r="3" spans="1:13" ht="264">
       <c r="A3" s="3"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="J3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="20">
+    <row r="4" spans="1:13" ht="22">
       <c r="A4" s="3"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="31" t="s">
+      <c r="H4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="39">
+    <row r="5" spans="1:13" ht="44">
       <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="31" t="s">
+      <c r="H5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="20">
+    <row r="6" spans="1:13" ht="22">
       <c r="A6" s="3"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="31" t="s">
+      <c r="H6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="28" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="40">
+    <row r="7" spans="1:13" ht="44">
       <c r="A7" s="3"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="20">
+    <row r="8" spans="1:13" ht="22">
       <c r="A8" s="3"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="21" t="s">
+      <c r="K8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.5">
-      <c r="C11" s="29" t="s">
+    <row r="10" spans="1:13" ht="21">
+      <c r="C10" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1239,14 +1298,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F50B4E3-E129-334C-8F36-EC2D8A344820}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="20" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" style="20" customWidth="1"/>
+    <col min="9" max="10" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="25" thickBot="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:19" ht="23" thickTop="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="1:19" ht="22">
+      <c r="A3" s="3"/>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="1:19" ht="22">
+      <c r="A4" s="3"/>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" spans="1:19" ht="22">
+      <c r="A5" s="3"/>
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+    </row>
+    <row r="6" spans="1:19" ht="22">
+      <c r="A6" s="3"/>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+    </row>
+    <row r="7" spans="1:19" ht="22">
+      <c r="A7" s="3"/>
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+    </row>
+    <row r="9" spans="1:19" ht="21">
+      <c r="C9" s="26"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F303DE3-0EAA-4255-893A-7F8757E07641}">
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="44.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1270,27 +1587,27 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C8" t="s">
@@ -1327,12 +1644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B73B9EEAFBBEA04B9487748478AE5B10" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ebb565478e7a1a3dcf1a59c51a5398bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5510ff2d-8d0f-4297-b81e-8a882641c805" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d6de3423dfd00089fa99a8de6af579" ns2:_="">
     <xsd:import namespace="5510ff2d-8d0f-4297-b81e-8a882641c805"/>
@@ -1464,6 +1775,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1474,22 +1791,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A847EC59-9D65-4057-9ECC-29A187D50CEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="5510ff2d-8d0f-4297-b81e-8a882641c805"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0C98FB-7376-4267-9704-150A8F3E87E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1507,6 +1808,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A847EC59-9D65-4057-9ECC-29A187D50CEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="5510ff2d-8d0f-4297-b81e-8a882641c805"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2184AB-1629-4005-A6B0-A584B2205D53}">
   <ds:schemaRefs>

--- a/ai_docs/AI Pair Programming.xlsx
+++ b/ai_docs/AI Pair Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocuencanunez/Documents/Accenture/Inteligencia Artificial/AI Pair Programming/ai_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14DDF0-9225-4749-9097-1FBCA6083EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F6A24A-E6EB-864E-B3AC-7E32DF295B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{8640C684-D4C0-3C48-A420-0551075C9A2E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>Modelo</t>
   </si>
@@ -264,9 +264,6 @@
     <t>1 GB / 2.8 GB</t>
   </si>
   <si>
-    <t>20.26 segundos</t>
-  </si>
-  <si>
     <t>57.54 segundos</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>0.99 minutos</t>
   </si>
   <si>
-    <t>2.026 segundos</t>
-  </si>
-  <si>
     <t>11.51 segundos</t>
   </si>
   <si>
@@ -286,6 +280,15 @@
   </si>
   <si>
     <t>20.77 GB</t>
+  </si>
+  <si>
+    <t>45.2 GB</t>
+  </si>
+  <si>
+    <t>20.26 segundos /</t>
+  </si>
+  <si>
+    <t>2.026 segundos /</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1305,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
@@ -1407,13 +1410,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="H4" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="30"/>
@@ -1442,10 +1445,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>73</v>
@@ -1476,7 +1479,9 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="I6" s="35"/>
       <c r="J6" s="30"/>
       <c r="K6" s="31"/>
@@ -1504,13 +1509,13 @@
         <v>5</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="30"/>
@@ -1776,18 +1781,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1809,6 +1814,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2184AB-1629-4005-A6B0-A584B2205D53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A847EC59-9D65-4057-9ECC-29A187D50CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1822,12 +1835,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2184AB-1629-4005-A6B0-A584B2205D53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>